--- a/docs/templateKP.xlsx
+++ b/docs/templateKP.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Шторы" sheetId="18" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ЛДСП!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ЛДСП!$A$1:$J$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Пластик!$A$1:$K$24</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="163">
   <si>
     <t>№</t>
   </si>
@@ -1407,12 +1407,6 @@
   </si>
   <si>
     <t>Смета №:V 00250580</t>
-  </si>
-  <si>
-    <t>{{products.Name}}</t>
-  </si>
-  <si>
-    <t>{{products.description}}</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2174,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2496,12 +2490,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="36" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2553,6 +2541,27 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="8" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="7" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2588,27 +2597,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="8" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="7" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -2842,13 +2830,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2885,13 +2873,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2928,13 +2916,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2971,13 +2959,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3014,13 +3002,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3057,13 +3045,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3100,7 +3088,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3138,7 +3126,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3176,7 +3164,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3214,7 +3202,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3252,7 +3240,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3290,7 +3278,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3328,7 +3316,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3366,7 +3354,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3404,7 +3392,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3442,7 +3430,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3480,7 +3468,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3518,7 +3506,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3556,7 +3544,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3594,7 +3582,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3632,7 +3620,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3670,7 +3658,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3708,7 +3696,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3746,7 +3734,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3833,14 +3821,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5026,14 +5014,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -8052,10 +8040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8096,18 +8084,18 @@
       <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -8172,8 +8160,8 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
     </row>
     <row r="8" spans="1:27" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
@@ -8216,34 +8204,34 @@
       <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="143" t="s">
+      <c r="E11" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="143" t="s">
+      <c r="F11" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="144" t="s">
+      <c r="H11" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="145" t="s">
+      <c r="J11" s="143" t="s">
         <v>13</v>
       </c>
       <c r="P11" s="63"/>
@@ -8253,16 +8241,16 @@
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="145"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="143"/>
     </row>
     <row r="13" spans="1:27" s="13" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
@@ -8290,13 +8278,9 @@
     </row>
     <row r="15" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
-      <c r="B15" s="47" t="s">
-        <v>163</v>
-      </c>
+      <c r="B15" s="43"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="135" t="s">
-        <v>164</v>
-      </c>
+      <c r="D15" s="133"/>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
@@ -8321,17 +8305,17 @@
       <c r="Z15" s="62"/>
       <c r="AA15" s="62"/>
     </row>
-    <row r="16" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="53"/>
+    <row r="16" spans="1:27" s="13" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="54"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
@@ -8350,17 +8334,18 @@
       <c r="Z16" s="62"/>
       <c r="AA16" s="62"/>
     </row>
-    <row r="17" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="53"/>
+    <row r="17" spans="1:27" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="55"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
@@ -8379,17 +8364,18 @@
       <c r="Z17" s="62"/>
       <c r="AA17" s="62"/>
     </row>
-    <row r="18" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="53"/>
+    <row r="18" spans="1:27" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="55"/>
       <c r="K18" s="62"/>
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
@@ -8408,17 +8394,19 @@
       <c r="Z18" s="62"/>
       <c r="AA18" s="62"/>
     </row>
-    <row r="19" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="53"/>
+    <row r="19" spans="1:27" s="13" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="55"/>
       <c r="K19" s="62"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
@@ -8437,17 +8425,17 @@
       <c r="Z19" s="62"/>
       <c r="AA19" s="62"/>
     </row>
-    <row r="20" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="53"/>
+    <row r="20" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="57"/>
       <c r="K20" s="62"/>
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
@@ -8466,17 +8454,15 @@
       <c r="Z20" s="62"/>
       <c r="AA20" s="62"/>
     </row>
-    <row r="21" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="53"/>
+    <row r="21" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="58"/>
       <c r="K21" s="62"/>
       <c r="L21" s="62"/>
       <c r="M21" s="62"/>
@@ -8495,17 +8481,15 @@
       <c r="Z21" s="62"/>
       <c r="AA21" s="62"/>
     </row>
-    <row r="22" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="53"/>
+    <row r="22" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="17"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="62"/>
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
@@ -8524,17 +8508,15 @@
       <c r="Z22" s="62"/>
       <c r="AA22" s="62"/>
     </row>
-    <row r="23" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="53"/>
+    <row r="23" spans="1:27" s="13" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="59"/>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
@@ -8553,17 +8535,15 @@
       <c r="Z23" s="62"/>
       <c r="AA23" s="62"/>
     </row>
-    <row r="24" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="53"/>
+    <row r="24" spans="1:27" s="13" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="58"/>
       <c r="K24" s="62"/>
       <c r="L24" s="62"/>
       <c r="M24" s="62"/>
@@ -8582,392 +8562,171 @@
       <c r="Z24" s="62"/>
       <c r="AA24" s="62"/>
     </row>
-    <row r="25" spans="1:27" s="13" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-    </row>
-    <row r="26" spans="1:27" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-    </row>
-    <row r="27" spans="1:27" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-    </row>
-    <row r="28" spans="1:27" s="13" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="55"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="62"/>
-    </row>
-    <row r="29" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-    </row>
-    <row r="30" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-    </row>
-    <row r="31" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="17"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-    </row>
-    <row r="32" spans="1:27" s="13" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-    </row>
-    <row r="33" spans="1:27" s="13" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-    </row>
-    <row r="34" spans="1:27" s="13" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+    <row r="25" spans="1:27" s="13" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="60"/>
+    </row>
+    <row r="26" spans="1:27" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="60"/>
+    </row>
+    <row r="27" spans="1:27" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="60"/>
+    </row>
+    <row r="28" spans="1:27" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="60"/>
+    </row>
+    <row r="29" spans="1:27" s="13" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="60"/>
+    </row>
+    <row r="30" spans="1:27" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="60"/>
+    </row>
+    <row r="31" spans="1:27" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="60"/>
+    </row>
+    <row r="32" spans="1:27" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="60"/>
+    </row>
+    <row r="33" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="60"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="60"/>
-    </row>
-    <row r="35" spans="1:27" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="60"/>
-    </row>
-    <row r="36" spans="1:27" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="60"/>
-    </row>
-    <row r="37" spans="1:27" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="60"/>
-    </row>
-    <row r="38" spans="1:27" s="13" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="60"/>
-    </row>
-    <row r="39" spans="1:27" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="60"/>
-    </row>
-    <row r="40" spans="1:27" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="60"/>
-    </row>
-    <row r="41" spans="1:27" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="60"/>
-    </row>
-    <row r="42" spans="1:27" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="60"/>
-    </row>
-    <row r="43" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="19"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="20"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="20"/>
     </row>
@@ -9003,45 +8762,9 @@
       <c r="A56" s="21"/>
       <c r="B56" s="20"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="20"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="20"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="20"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="20"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="20"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="20"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="20"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="20"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="20"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A11:A12"/>
@@ -9056,7 +8779,7 @@
     <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -9122,19 +8845,19 @@
       <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -9211,8 +8934,8 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
     </row>
     <row r="8" spans="1:43" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
@@ -9320,37 +9043,37 @@
       </c>
     </row>
     <row r="11" spans="1:43" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="141" t="s">
+      <c r="E11" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="143" t="s">
+      <c r="F11" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="143" t="s">
+      <c r="H11" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="144" t="s">
+      <c r="J11" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="145" t="s">
+      <c r="K11" s="143" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="63" t="s">
@@ -9405,17 +9128,17 @@
       </c>
     </row>
     <row r="12" spans="1:43" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
     </row>
     <row r="13" spans="1:43" s="13" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
@@ -9887,8 +9610,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="137"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="135"/>
       <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:43" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10210,10 +9933,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="150"/>
+      <c r="C1" s="148"/>
       <c r="F1" s="95"/>
       <c r="G1" s="95"/>
     </row>
@@ -10234,10 +9957,10 @@
       <c r="G3" s="95"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="150"/>
+      <c r="C4" s="148"/>
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
     </row>
@@ -10314,14 +10037,14 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
     </row>
     <row r="15" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="81" t="s">
@@ -10470,14 +10193,14 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="149"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="147"/>
     </row>
     <row r="24" spans="2:7" ht="156.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B24" s="81" t="s">
@@ -10607,14 +10330,14 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="147"/>
     </row>
     <row r="32" spans="2:7" ht="156.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B32" s="81" t="s">
@@ -10706,14 +10429,14 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="41.55" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="149"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="147"/>
     </row>
     <row r="38" spans="2:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B38" s="81" t="s">
@@ -11129,12 +10852,12 @@
       <c r="C11" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="158" t="s">
+      <c r="D11" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="160"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="165"/>
     </row>
     <row r="12" spans="2:7" s="105" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="130">
@@ -11143,12 +10866,12 @@
       <c r="C12" s="129" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="163"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="168"/>
     </row>
     <row r="13" spans="2:7" s="105" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="128">
@@ -11157,10 +10880,10 @@
       <c r="C13" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="154"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="159"/>
     </row>
     <row r="14" spans="2:7" s="105" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="128">
@@ -11169,12 +10892,12 @@
       <c r="C14" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="154"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="159"/>
     </row>
     <row r="15" spans="2:7" s="105" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="128">
@@ -11183,12 +10906,12 @@
       <c r="C15" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="154"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="159"/>
     </row>
     <row r="16" spans="2:7" s="105" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="128">
@@ -11197,12 +10920,12 @@
       <c r="C16" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="154"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="159"/>
     </row>
     <row r="17" spans="2:8" s="105" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="128">
@@ -11211,12 +10934,12 @@
       <c r="C17" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="152" t="s">
+      <c r="D17" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="154"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="159"/>
     </row>
     <row r="18" spans="2:8" s="105" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="128">
@@ -11225,12 +10948,12 @@
       <c r="C18" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="152" t="s">
+      <c r="D18" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="154"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="159"/>
     </row>
     <row r="19" spans="2:8" s="105" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="126">
@@ -11239,12 +10962,12 @@
       <c r="C19" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="155" t="s">
+      <c r="D19" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="157"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="162"/>
     </row>
     <row r="20" spans="2:8" s="105" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="109"/>
@@ -11290,10 +11013,10 @@
       <c r="D23" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="158" t="s">
+      <c r="E23" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="159"/>
+      <c r="F23" s="164"/>
       <c r="G23" s="120" t="s">
         <v>138</v>
       </c>
@@ -11308,10 +11031,10 @@
       <c r="D24" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="166">
+      <c r="E24" s="153">
         <v>219570</v>
       </c>
-      <c r="F24" s="167"/>
+      <c r="F24" s="154"/>
       <c r="G24" s="116">
         <v>219570000</v>
       </c>
@@ -11349,113 +11072,113 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="2:8" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="168" t="s">
+      <c r="B28" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="168"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
     </row>
     <row r="29" spans="2:8" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="164" t="s">
+      <c r="B29" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
       <c r="E29" s="112"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
     </row>
     <row r="30" spans="2:8" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
     </row>
     <row r="31" spans="2:8" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="152" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
     </row>
     <row r="32" spans="2:8" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
       <c r="G32" s="112"/>
     </row>
     <row r="33" spans="2:7" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="164" t="s">
+      <c r="B33" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="164"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
     </row>
     <row r="34" spans="2:7" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="164" t="s">
+      <c r="B34" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
       <c r="E34" s="112"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
     </row>
     <row r="35" spans="2:7" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
       <c r="G35" s="110"/>
     </row>
     <row r="36" spans="2:7" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="170"/>
+      <c r="C36" s="150"/>
       <c r="D36" s="101"/>
       <c r="E36" s="101"/>
       <c r="F36" s="112"/>
       <c r="G36" s="111"/>
     </row>
     <row r="37" spans="2:7" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="170" t="s">
+      <c r="B37" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="170"/>
+      <c r="C37" s="150"/>
       <c r="D37" s="113"/>
       <c r="E37" s="113"/>
       <c r="F37" s="112"/>
       <c r="G37" s="111"/>
     </row>
     <row r="38" spans="2:7" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
       <c r="G38" s="110"/>
     </row>
     <row r="39" spans="2:7" s="105" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -11773,12 +11496,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:F35"/>
@@ -11792,16 +11519,12 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B32" r:id="rId1" display="http://www.decointerior.kz/"/>

--- a/docs/templateKP.xlsx
+++ b/docs/templateKP.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="182">
   <si>
     <t>№</t>
   </si>
@@ -1407,6 +1407,63 @@
   </si>
   <si>
     <t>Смета №:V 00250580</t>
+  </si>
+  <si>
+    <t>{{projectName}}</t>
+  </si>
+  <si>
+    <t>{{name}}</t>
+  </si>
+  <si>
+    <t>{{deliveryCondition}}</t>
+  </si>
+  <si>
+    <t>{{paymentCondition}}</t>
+  </si>
+  <si>
+    <t>{{warranty}}</t>
+  </si>
+  <si>
+    <t>{{deadline}}</t>
+  </si>
+  <si>
+    <t>{{products.id}}</t>
+  </si>
+  <si>
+    <t>{{products.name}}</t>
+  </si>
+  <si>
+    <t>{{products.picture}}</t>
+  </si>
+  <si>
+    <t>{{products.description}}</t>
+  </si>
+  <si>
+    <t>{{products.weight}}</t>
+  </si>
+  <si>
+    <t>{{products.depth}}</t>
+  </si>
+  <si>
+    <t>{{products.height}}</t>
+  </si>
+  <si>
+    <t>{{products.price}}</t>
+  </si>
+  <si>
+    <t>{{products.count}}</t>
+  </si>
+  <si>
+    <t>{{products.total}}</t>
+  </si>
+  <si>
+    <t>{{totalPrice}}</t>
+  </si>
+  <si>
+    <t>{{deliveryPrice}}</t>
+  </si>
+  <si>
+    <t>{{general.Price}}</t>
   </si>
 </sst>
 </file>
@@ -8042,8 +8099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8114,7 +8171,9 @@
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>163</v>
+      </c>
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
@@ -8127,7 +8186,9 @@
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="22" t="s">
+        <v>164</v>
+      </c>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
       <c r="F5" s="66"/>
@@ -8140,7 +8201,9 @@
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>165</v>
+      </c>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
@@ -8154,7 +8217,9 @@
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>166</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -8168,7 +8233,9 @@
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>167</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -8194,7 +8261,9 @@
       <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -8277,16 +8346,36 @@
       <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="53"/>
+      <c r="A15" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="133" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>178</v>
+      </c>
       <c r="K15" s="62"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
@@ -8345,7 +8434,9 @@
       <c r="I17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="55" t="s">
+        <v>179</v>
+      </c>
       <c r="K17" s="62"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
@@ -8375,7 +8466,9 @@
       <c r="I18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="55"/>
+      <c r="J18" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="K18" s="62"/>
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
@@ -8406,7 +8499,9 @@
       <c r="I19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="55"/>
+      <c r="J19" s="55" t="s">
+        <v>181</v>
+      </c>
       <c r="K19" s="62"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>

--- a/docs/templateKP.xlsx
+++ b/docs/templateKP.xlsx
@@ -18,10 +18,10 @@
     <sheet name="Шторы" sheetId="18" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ЛДСП!$A$1:$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ЛДСП!$A$1:$J$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Пластик!$A$1:$K$24</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1463,7 +1463,7 @@
     <t>{{deliveryPrice}}</t>
   </si>
   <si>
-    <t>{{general.Price}}</t>
+    <t>{{generalPrice}}</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1478,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _₸_-;\-* #,##0.00\ _₸_-;_-* &quot;-&quot;??\ _₸_-;_-@_-"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1867,6 +1867,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2547,7 +2554,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="36" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2715,13 +2722,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>75732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2758,13 +2765,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>75732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2801,13 +2808,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>75732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2844,13 +2851,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>75732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2887,13 +2894,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2930,13 +2937,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2973,13 +2980,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3016,13 +3023,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3059,13 +3066,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3102,13 +3109,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>77093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3145,7 +3152,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3183,7 +3190,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3221,7 +3228,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3259,7 +3266,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3297,7 +3304,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3335,7 +3342,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3373,7 +3380,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3411,7 +3418,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3449,7 +3456,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3487,7 +3494,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3525,7 +3532,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3563,7 +3570,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3601,7 +3608,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3639,7 +3646,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3677,7 +3684,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3715,7 +3722,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3753,7 +3760,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -3791,7 +3798,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4234" cy="77093"/>
@@ -8097,10 +8104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8244,10 +8251,14 @@
       <c r="I8" s="66"/>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="1:27" s="4" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -8256,126 +8267,139 @@
       <c r="I9" s="66"/>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="1:27" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="50"/>
-    </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="138" t="s">
+    <row r="10" spans="1:27" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="139" t="s">
+      <c r="B10" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C10" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="D10" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="141" t="s">
+      <c r="E10" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="141" t="s">
+      <c r="F10" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="141" t="s">
+      <c r="G10" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="142" t="s">
+      <c r="H10" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I10" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="143" t="s">
+      <c r="J10" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="W11" s="3" t="s">
+      <c r="P10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="W10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="143"/>
-    </row>
-    <row r="13" spans="1:27" s="13" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:27" s="13" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="52"/>
-    </row>
-    <row r="15" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+    <row r="11" spans="1:27" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="138"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
+    </row>
+    <row r="12" spans="1:27" s="13" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:27" s="13" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="1:27" s="13" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B14" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C14" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D14" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E14" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F14" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G14" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H14" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I14" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J14" s="53" t="s">
         <v>178</v>
       </c>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+    </row>
+    <row r="15" spans="1:27" s="13" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
@@ -8394,17 +8418,20 @@
       <c r="Z15" s="62"/>
       <c r="AA15" s="62"/>
     </row>
-    <row r="16" spans="1:27" s="13" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="54"/>
+    <row r="16" spans="1:27" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>179</v>
+      </c>
       <c r="K16" s="62"/>
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
@@ -8426,16 +8453,16 @@
     <row r="17" spans="1:27" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="37" t="s">
-        <v>17</v>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K17" s="62"/>
       <c r="L17" s="62"/>
@@ -8455,19 +8482,20 @@
       <c r="Z17" s="62"/>
       <c r="AA17" s="62"/>
     </row>
-    <row r="18" spans="1:27" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
+    <row r="18" spans="1:27" s="13" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39" t="s">
-        <v>25</v>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="36" t="s">
+        <v>14</v>
       </c>
       <c r="J18" s="55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K18" s="62"/>
       <c r="L18" s="62"/>
@@ -8487,21 +8515,17 @@
       <c r="Z18" s="62"/>
       <c r="AA18" s="62"/>
     </row>
-    <row r="19" spans="1:27" s="13" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>181</v>
-      </c>
+    <row r="19" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="31"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="57"/>
       <c r="K19" s="62"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
@@ -8520,17 +8544,15 @@
       <c r="Z19" s="62"/>
       <c r="AA19" s="62"/>
     </row>
-    <row r="20" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20" s="57"/>
+    <row r="20" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="58"/>
       <c r="K20" s="62"/>
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
@@ -8550,7 +8572,7 @@
       <c r="AA20" s="62"/>
     </row>
     <row r="21" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -8576,15 +8598,15 @@
       <c r="Z21" s="62"/>
       <c r="AA21" s="62"/>
     </row>
-    <row r="22" spans="1:27" s="13" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="17"/>
+    <row r="22" spans="1:27" s="13" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="58"/>
+      <c r="J22" s="59"/>
       <c r="K22" s="62"/>
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
@@ -8611,7 +8633,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="59"/>
+      <c r="J23" s="58"/>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
@@ -8630,34 +8652,19 @@
       <c r="Z23" s="62"/>
       <c r="AA23" s="62"/>
     </row>
-    <row r="24" spans="1:27" s="13" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-    </row>
-    <row r="25" spans="1:27" s="13" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="13" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="60"/>
+    </row>
+    <row r="25" spans="1:27" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -8673,19 +8680,19 @@
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="1"/>
       <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:27" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -8693,7 +8700,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="60"/>
     </row>
-    <row r="28" spans="1:27" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="13" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8705,11 +8712,11 @@
       <c r="I28" s="1"/>
       <c r="J28" s="60"/>
     </row>
-    <row r="29" spans="1:27" s="13" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -8753,75 +8760,67 @@
       <c r="I32" s="1"/>
       <c r="J32" s="60"/>
     </row>
-    <row r="33" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+    <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="60"/>
-    </row>
-    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
-      <c r="B37" s="19"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="20"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="20"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="20"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="20"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="20"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="20"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="20"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="20"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="20"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="20"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="20"/>
     </row>
@@ -8853,25 +8852,21 @@
       <c r="A55" s="21"/>
       <c r="B55" s="20"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="20"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
